--- a/测试.xlsx
+++ b/测试.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="54">
   <si>
     <t>我的世界</t>
   </si>
@@ -181,32 +182,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,9 +544,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -224,17 +796,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -283,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +934,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,21 +1137,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.85" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +1163,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -557,7 +1173,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -583,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -609,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -635,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -661,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -687,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -713,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -739,7 +1355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -765,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -791,7 +1407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -817,7 +1433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -843,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -869,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -895,7 +1511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -903,7 +1519,7 @@
         <v>68</v>
       </c>
       <c r="C16">
-        <v>45.878787879999997</v>
+        <v>45.87878788</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -921,7 +1537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -929,7 +1545,7 @@
         <v>69</v>
       </c>
       <c r="C17">
-        <v>46.193473189999999</v>
+        <v>46.19347319</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -947,7 +1563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -955,7 +1571,7 @@
         <v>70</v>
       </c>
       <c r="C18">
-        <v>46.508158510000001</v>
+        <v>46.50815851</v>
       </c>
       <c r="D18" t="s">
         <v>48</v>
@@ -973,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -981,7 +1597,7 @@
         <v>71</v>
       </c>
       <c r="C19">
-        <v>46.822843820000003</v>
+        <v>46.82284382</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
@@ -999,7 +1615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2016</v>
       </c>
@@ -1007,7 +1623,7 @@
         <v>72</v>
       </c>
       <c r="C20">
-        <v>47.137529139999998</v>
+        <v>47.13752914</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -1025,7 +1641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -1051,7 +1667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2016</v>
       </c>
@@ -1059,7 +1675,7 @@
         <v>74</v>
       </c>
       <c r="C22">
-        <v>47.766899770000002</v>
+        <v>47.76689977</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
@@ -1077,7 +1693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -1085,7 +1701,7 @@
         <v>75</v>
       </c>
       <c r="C23">
-        <v>48.081585080000004</v>
+        <v>48.08158508</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -1107,8 +1723,1116 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="18.85" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>45.87878788</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>46.19347319</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>46.50815851</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>46.82284382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <v>47.13752914</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>2016</v>
+      </c>
+      <c r="B21">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>47.45221445</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>2016</v>
+      </c>
+      <c r="B22">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>47.76689977</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>48.08158508</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>2016</v>
+      </c>
+      <c r="B25">
+        <v>77</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>2016</v>
+      </c>
+      <c r="B26">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>2016</v>
+      </c>
+      <c r="B27">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>2016</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>2016</v>
+      </c>
+      <c r="B29">
+        <v>81</v>
+      </c>
+      <c r="C29">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>2016</v>
+      </c>
+      <c r="B30">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>2016</v>
+      </c>
+      <c r="B31">
+        <v>83</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>2016</v>
+      </c>
+      <c r="B32">
+        <v>84</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>2016</v>
+      </c>
+      <c r="B33">
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>2016</v>
+      </c>
+      <c r="B34">
+        <v>86</v>
+      </c>
+      <c r="C34">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>2016</v>
+      </c>
+      <c r="B35">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>2016</v>
+      </c>
+      <c r="B36">
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>45.87878788</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>2016</v>
+      </c>
+      <c r="B37">
+        <v>89</v>
+      </c>
+      <c r="C37">
+        <v>46.19347319</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38">
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <v>46.50815851</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>2016</v>
+      </c>
+      <c r="B39">
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>46.82284382</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>2016</v>
+      </c>
+      <c r="B40">
+        <v>92</v>
+      </c>
+      <c r="C40">
+        <v>47.13752914</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>2016</v>
+      </c>
+      <c r="B41">
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <v>47.45221445</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>2016</v>
+      </c>
+      <c r="B42">
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>47.76689977</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>2016</v>
+      </c>
+      <c r="B43">
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <v>48.08158508</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>